--- a/data/trans_orig/P33B_R2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33B_R2-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>34272</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>24732</v>
+        <v>24853</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45158</v>
+        <v>44239</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1074877783724341</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07756801304326232</v>
+        <v>0.0779461347373888</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1416294844146883</v>
+        <v>0.1387487222798823</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>84</v>
@@ -762,19 +762,19 @@
         <v>42158</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>33890</v>
+        <v>33416</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>51164</v>
+        <v>51768</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1333856745483206</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1072265010764828</v>
+        <v>0.1057277793589463</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.161880132739542</v>
+        <v>0.1637907168020627</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>123</v>
@@ -783,19 +783,19 @@
         <v>76430</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>64130</v>
+        <v>64354</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>91313</v>
+        <v>91363</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1203799335827511</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1010069095446158</v>
+        <v>0.1013596003671812</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1438209298510709</v>
+        <v>0.1438994132486065</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>284573</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>273687</v>
+        <v>274606</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>294113</v>
+        <v>293992</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8925122216275658</v>
+        <v>0.892512221627566</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8583705155853116</v>
+        <v>0.8612512777201177</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9224319869567377</v>
+        <v>0.9220538652626111</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>454</v>
@@ -833,19 +833,19 @@
         <v>273903</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>264897</v>
+        <v>264293</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>282171</v>
+        <v>282645</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8666143254516794</v>
+        <v>0.8666143254516793</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8381198672604578</v>
+        <v>0.8362092831979372</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8927734989235172</v>
+        <v>0.8942722206410536</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>746</v>
@@ -854,19 +854,19 @@
         <v>558476</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>543593</v>
+        <v>543543</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>570776</v>
+        <v>570552</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.879620066417249</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8561790701489288</v>
+        <v>0.8561005867513933</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8989930904553841</v>
+        <v>0.8986403996328188</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>50825</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>35955</v>
+        <v>37681</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>70665</v>
+        <v>72091</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0957785202588009</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.067757137316586</v>
+        <v>0.07100943853184459</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1331683984925406</v>
+        <v>0.1358549324368891</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>118</v>
@@ -979,19 +979,19 @@
         <v>82057</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>67677</v>
+        <v>68490</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>97129</v>
+        <v>96781</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1501520198328913</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.123839155440279</v>
+        <v>0.1253269580963597</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1777312138187209</v>
+        <v>0.177095185244911</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>157</v>
@@ -1000,19 +1000,19 @@
         <v>132882</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>113024</v>
+        <v>112958</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>156027</v>
+        <v>155607</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1233652525256466</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1049300765950282</v>
+        <v>0.1048684205320519</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1448532438793796</v>
+        <v>0.1444634428460076</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>479822</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>459982</v>
+        <v>458556</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>494692</v>
+        <v>492966</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9042214797411992</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8668316015074593</v>
+        <v>0.8641450675631107</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9322428626834138</v>
+        <v>0.9289905614681552</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>599</v>
@@ -1050,19 +1050,19 @@
         <v>464437</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>449365</v>
+        <v>449713</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>478817</v>
+        <v>478004</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8498479801671087</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8222687861812783</v>
+        <v>0.8229048147550887</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8761608445597205</v>
+        <v>0.8746730419036401</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>942</v>
@@ -1071,19 +1071,19 @@
         <v>944259</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>921114</v>
+        <v>921534</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>964117</v>
+        <v>964183</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8766347474743535</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8551467561206204</v>
+        <v>0.8555365571539921</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8950699234049718</v>
+        <v>0.895131579467948</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>42094</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>32419</v>
+        <v>31440</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>55322</v>
+        <v>54484</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1332108943498033</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.102595204766371</v>
+        <v>0.09949737365307869</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1750739635147977</v>
+        <v>0.1724205137838846</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>133</v>
@@ -1196,19 +1196,19 @@
         <v>81378</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>66994</v>
+        <v>69382</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>95129</v>
+        <v>95150</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.2286912768032422</v>
+        <v>0.2286912768032421</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1882696072690206</v>
+        <v>0.1949794496710441</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.267334291799255</v>
+        <v>0.2673951534107969</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>186</v>
@@ -1217,19 +1217,19 @@
         <v>123472</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>108076</v>
+        <v>105847</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>141265</v>
+        <v>139667</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1837827236889363</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1608666388374854</v>
+        <v>0.1575482675360836</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2102673650114639</v>
+        <v>0.2078886121984573</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>273899</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>260671</v>
+        <v>261509</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>283574</v>
+        <v>284553</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8667891056501968</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8249260364852022</v>
+        <v>0.8275794862161158</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8974047952336289</v>
+        <v>0.9005026263469215</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>402</v>
@@ -1267,19 +1267,19 @@
         <v>274464</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>260713</v>
+        <v>260692</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>288848</v>
+        <v>286460</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7713087231967578</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7326657082007451</v>
+        <v>0.732604846589203</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8117303927309792</v>
+        <v>0.8050205503289557</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>709</v>
@@ -1288,19 +1288,19 @@
         <v>548364</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>530571</v>
+        <v>532169</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>563760</v>
+        <v>565989</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8162172763110637</v>
+        <v>0.8162172763110638</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7897326349885361</v>
+        <v>0.7921113878015427</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8391333611625146</v>
+        <v>0.8424517324639164</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>59283</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>42526</v>
+        <v>43532</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>77705</v>
+        <v>77410</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1588737345093685</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1139652562576443</v>
+        <v>0.1166613856831799</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2082424089193486</v>
+        <v>0.2074518327941326</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>132</v>
@@ -1413,19 +1413,19 @@
         <v>87121</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>72476</v>
+        <v>73218</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>104597</v>
+        <v>105041</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2064660997883507</v>
+        <v>0.2064660997883508</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1717595402143157</v>
+        <v>0.1735173361106322</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2478832621942626</v>
+        <v>0.2489362040882664</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>185</v>
@@ -1434,19 +1434,19 @@
         <v>146404</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>126137</v>
+        <v>126005</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>171179</v>
+        <v>170441</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1841309020212696</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1586417836656549</v>
+        <v>0.1584751262608714</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2152909625350395</v>
+        <v>0.2143622806954097</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>313862</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>295440</v>
+        <v>295735</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>330619</v>
+        <v>329613</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8411262654906315</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7917575910806516</v>
+        <v>0.7925481672058676</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8860347437423558</v>
+        <v>0.8833386143168203</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>467</v>
@@ -1484,19 +1484,19 @@
         <v>334840</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>317364</v>
+        <v>316920</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>349485</v>
+        <v>348743</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7935339002116494</v>
+        <v>0.7935339002116495</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7521167378057376</v>
+        <v>0.7510637959117339</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8282404597856843</v>
+        <v>0.8264826638893679</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>706</v>
@@ -1505,19 +1505,19 @@
         <v>648703</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>623928</v>
+        <v>624666</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>668970</v>
+        <v>669102</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8158690979787304</v>
+        <v>0.8158690979787303</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7847090374649607</v>
+        <v>0.7856377193045904</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8413582163343454</v>
+        <v>0.8415248737391287</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>15270</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10288</v>
+        <v>10468</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>22178</v>
+        <v>22373</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07424515960066694</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05002540547545199</v>
+        <v>0.05089845036588179</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1078343201947096</v>
+        <v>0.1087846503477938</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>60</v>
@@ -1630,19 +1630,19 @@
         <v>24474</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>18772</v>
+        <v>19443</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>30473</v>
+        <v>31207</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.1078994126575796</v>
+        <v>0.1078994126575795</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08276059572047802</v>
+        <v>0.08571956917984562</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1343491689370917</v>
+        <v>0.1375838993120357</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>85</v>
@@ -1651,19 +1651,19 @@
         <v>39744</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>31642</v>
+        <v>32077</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>48015</v>
+        <v>49017</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0918955192831717</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07316213488238378</v>
+        <v>0.07416806970490221</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1110196483406957</v>
+        <v>0.1133375265632914</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>190395</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>183487</v>
+        <v>183292</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>195377</v>
+        <v>195197</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.925754840399333</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8921656798052903</v>
+        <v>0.8912153496522072</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9499745945245479</v>
+        <v>0.9491015496341191</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>431</v>
@@ -1701,19 +1701,19 @@
         <v>202349</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>196350</v>
+        <v>195616</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>208051</v>
+        <v>207380</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8921005873424205</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8656508310629085</v>
+        <v>0.8624161006879644</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9172394042795222</v>
+        <v>0.9142804308201544</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>685</v>
@@ -1722,19 +1722,19 @@
         <v>392744</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>384473</v>
+        <v>383471</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>400846</v>
+        <v>400411</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9081044807168283</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8889803516593048</v>
+        <v>0.8866624734367089</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9268378651176166</v>
+        <v>0.9258319302950978</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>40827</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>30765</v>
+        <v>32214</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>51246</v>
+        <v>52543</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1508159396327205</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1136467689303378</v>
+        <v>0.1189988998491991</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1893035144197108</v>
+        <v>0.1940956522079802</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>144</v>
@@ -1847,19 +1847,19 @@
         <v>73171</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>62418</v>
+        <v>62242</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>84280</v>
+        <v>84310</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2774241564923285</v>
+        <v>0.2774241564923284</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2366546990614816</v>
+        <v>0.2359887979208795</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3195452008305449</v>
+        <v>0.3196573569613865</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>208</v>
@@ -1868,19 +1868,19 @@
         <v>113998</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>98662</v>
+        <v>99338</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>128433</v>
+        <v>130858</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2132960591031176</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1846018541129989</v>
+        <v>0.1858669941160647</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2403056209835433</v>
+        <v>0.2448427239648994</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>229880</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>219461</v>
+        <v>218164</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>239942</v>
+        <v>238493</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8491840603672796</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8106964855802893</v>
+        <v>0.8059043477920197</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.886353231069662</v>
+        <v>0.8810011001508008</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>316</v>
@@ -1918,19 +1918,19 @@
         <v>190579</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>179470</v>
+        <v>179440</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>201332</v>
+        <v>201508</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7225758435076716</v>
+        <v>0.7225758435076713</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6804547991694551</v>
+        <v>0.6803426430386136</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7633453009385184</v>
+        <v>0.7640112020791207</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>623</v>
@@ -1939,19 +1939,19 @@
         <v>420459</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>406024</v>
+        <v>403599</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>435795</v>
+        <v>435119</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7867039408968824</v>
+        <v>0.7867039408968823</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7596943790164566</v>
+        <v>0.7551572760351007</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8153981458870009</v>
+        <v>0.8141330058839353</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>90818</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>73219</v>
+        <v>74663</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>111444</v>
+        <v>109606</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1263812067184771</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1018910319975962</v>
+        <v>0.1039003610347548</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1550840668275703</v>
+        <v>0.1525256831666351</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>263</v>
@@ -2064,19 +2064,19 @@
         <v>198811</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>177577</v>
+        <v>177575</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>222249</v>
+        <v>219789</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2575086250253085</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2300054535383448</v>
+        <v>0.2300027835465459</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.287866357455525</v>
+        <v>0.2846800216958181</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>351</v>
@@ -2085,19 +2085,19 @@
         <v>289629</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>259220</v>
+        <v>262848</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>318239</v>
+        <v>320300</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.194295872036217</v>
+        <v>0.1942958720362171</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.173896188719061</v>
+        <v>0.1763300125584647</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2134880797850821</v>
+        <v>0.2148709499334442</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>627787</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>607161</v>
+        <v>608999</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>645386</v>
+        <v>643942</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.8736187932815228</v>
+        <v>0.873618793281523</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8449159331724297</v>
+        <v>0.847474316833365</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8981089680024037</v>
+        <v>0.8960996389652454</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>697</v>
@@ -2135,19 +2135,19 @@
         <v>573246</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>549808</v>
+        <v>552268</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>594480</v>
+        <v>594482</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.7424913749746913</v>
+        <v>0.7424913749746914</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7121336425444751</v>
+        <v>0.7153199783041819</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7699945464616552</v>
+        <v>0.7699972164534544</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1207</v>
@@ -2156,19 +2156,19 @@
         <v>1201033</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1172423</v>
+        <v>1170362</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1231442</v>
+        <v>1227814</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.805704127963783</v>
+        <v>0.8057041279637831</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.786511920214918</v>
+        <v>0.7851290500665556</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.826103811280939</v>
+        <v>0.8236699874415353</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2260,19 @@
         <v>159333</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>137814</v>
+        <v>138055</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>183526</v>
+        <v>181154</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.199647160228502</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1726841530993204</v>
+        <v>0.1729855186972545</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2299618959818098</v>
+        <v>0.226989035985923</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>375</v>
@@ -2281,19 +2281,19 @@
         <v>251103</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>230869</v>
+        <v>229375</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>274775</v>
+        <v>275793</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.30231240796742</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2779513734023218</v>
+        <v>0.2761523978142629</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.330811502688416</v>
+        <v>0.3320373037363158</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>566</v>
@@ -2302,19 +2302,19 @@
         <v>410436</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>379869</v>
+        <v>379175</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>443947</v>
+        <v>443230</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2520052771650922</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.233236987932451</v>
+        <v>0.2328110328823026</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2725805665211246</v>
+        <v>0.2721406617712268</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>638739</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>614546</v>
+        <v>616918</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>660258</v>
+        <v>660017</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.800352839771498</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7700381040181905</v>
+        <v>0.7730109640140774</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8273158469006798</v>
+        <v>0.8270144813027457</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>686</v>
@@ -2352,19 +2352,19 @@
         <v>579506</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>555834</v>
+        <v>554816</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>599740</v>
+        <v>601234</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.6976875920325799</v>
+        <v>0.6976875920325801</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6691884973115838</v>
+        <v>0.667962696263684</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7220486265976781</v>
+        <v>0.7238476021857371</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1257</v>
@@ -2373,19 +2373,19 @@
         <v>1218245</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1184734</v>
+        <v>1185451</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1248812</v>
+        <v>1249506</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.7479947228349075</v>
+        <v>0.7479947228349076</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7274194334788753</v>
+        <v>0.7278593382287734</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7667630120675488</v>
+        <v>0.7671889671176976</v>
       </c>
     </row>
     <row r="27">
@@ -2477,19 +2477,19 @@
         <v>492721</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>446626</v>
+        <v>450804</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>532240</v>
+        <v>536863</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.1395145783794931</v>
+        <v>0.1395145783794932</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1264628204025781</v>
+        <v>0.1276458299625879</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1507044689306758</v>
+        <v>0.1520134799894528</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1309</v>
@@ -2498,19 +2498,19 @@
         <v>840273</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>793467</v>
+        <v>797868</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>886033</v>
+        <v>887079</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2250572738734859</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2125207898458497</v>
+        <v>0.2136995181431914</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2373134403303522</v>
+        <v>0.2375936722889594</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1861</v>
@@ -2519,19 +2519,19 @@
         <v>1332994</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1273312</v>
+        <v>1270987</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1394926</v>
+        <v>1395980</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1834746361710545</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1752599188339788</v>
+        <v>0.1749398094854767</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1919989841505105</v>
+        <v>0.1921440330845332</v>
       </c>
     </row>
     <row r="29">
@@ -2548,19 +2548,19 @@
         <v>3038959</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2999440</v>
+        <v>2994817</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3085054</v>
+        <v>3080876</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.8604854216205067</v>
+        <v>0.8604854216205068</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8492955310693238</v>
+        <v>0.8479865200105471</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8735371795974218</v>
+        <v>0.8723541700374119</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4052</v>
@@ -2569,19 +2569,19 @@
         <v>2893325</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2847565</v>
+        <v>2846519</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2940131</v>
+        <v>2935730</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.774942726126514</v>
+        <v>0.7749427261265139</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7626865596696477</v>
+        <v>0.7624063277110408</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7874792101541502</v>
+        <v>0.7863004818568086</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6875</v>
@@ -2590,19 +2590,19 @@
         <v>5932285</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5870353</v>
+        <v>5869299</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5991967</v>
+        <v>5994292</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8165253638289455</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8080010158494895</v>
+        <v>0.8078559669154678</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8247400811660217</v>
+        <v>0.8250601905145234</v>
       </c>
     </row>
     <row r="30">
